--- a/Proyecto De pagina Caso de uso entidad relación/Cuadros casos de uso del proyecto MUKAG PAGINA.xlsx
+++ b/Proyecto De pagina Caso de uso entidad relación/Cuadros casos de uso del proyecto MUKAG PAGINA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORMACION\Desktop\Proyecto De pagina Caso de uso entidad relación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORMACION\Desktop\9.9.9\Jhonny Black\Proyecto De pagina Caso de uso entidad relación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692C9D16-3B43-491F-BA9B-925F715FF824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC21CCF1-A2B5-4CFB-A6E3-A4686F36316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{CF9BD624-8840-4784-AB28-26D7F044C5A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{CF9BD624-8840-4784-AB28-26D7F044C5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t>Casos de Uso</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">El codigo ya despues de que el usuario lo escaneara lo envia directo a la pagina Janflash Music </t>
-  </si>
-  <si>
-    <t>Como Ingresar al sitio web JanflshMusic</t>
   </si>
   <si>
     <t xml:space="preserve">El usuario deslisa el dedo  en el celular haciento ciertos movimientos hasta encontrar el escaner de codigos para escanea el codigo </t>
@@ -120,6 +117,66 @@
   </si>
   <si>
     <t xml:space="preserve">El usuario Requiere registrarse </t>
+  </si>
+  <si>
+    <t>Codigo Qr Proseso de conección usuario pagina web JanflshMusic</t>
+  </si>
+  <si>
+    <t>Usuario prosede a registrarse despues de haber escaneado el codigo Qr tomandole foto con la camara del celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema Le muetra en la pantalla del usuario los requerimiento para registrarse en la pagina como (nombres, apellidos, Documento y numero de mesa para saber en que mesa esta ubicado en el local fisico qque tiene como sistema de colocar musica a JanflshMusic). </t>
+  </si>
+  <si>
+    <t>Sistema Despues de que el usuario llenara los requerimientos inicial le pide otros Requerimientos que son (Correo Electronico, Corfirmar el correo Electronico,Contraseña, Corfirmar Contraseña)Esto Para ya registrar el usuario al el sistema.</t>
+  </si>
+  <si>
+    <t>El sistema Actualiza la Pagina y le muestra al usuario en la pantalla del celurar del usuario una seccion para verificar el correo electronico. Por medio de un mensaje de texto que el sistema le enviara al correo electronico verificando la validez de este correo electronico ya saben sierto.</t>
+  </si>
+  <si>
+    <t>El usuario confirma la entrega de el mensage a su correo electronico y procese a escribir con las manos en la pantalla del celular el codigo que le genero la pagina.</t>
+  </si>
+  <si>
+    <t>El sistema actualiza y da el visto bueno de que el proceso se a completado correctamente.</t>
+  </si>
+  <si>
+    <t>El usuario prosede a llenar los datos que le pide el sistema escribiendo en la pantalla de su respectivo celurar con los dedos ya saben sierto.</t>
+  </si>
+  <si>
+    <t>El usuario Cumplio el requerimiento de registro</t>
+  </si>
+  <si>
+    <t>Puede que el usuario no halla diligenciado bien el proseso de registro poniendo un correo incorrecto y el sistema no le genere el codigo.</t>
+  </si>
+  <si>
+    <t>Puede que el usuario no tenga correo electronico para poder registrarse y pues hay en ese caso no podria ingresar en la pagina. "pailas"</t>
+  </si>
+  <si>
+    <t>Reprodución De Musica en la web</t>
+  </si>
+  <si>
+    <t>El sistema prosede a hacer un analisis para saber si es la primera canción que pide el usuario para que no exceda el limite de canciones propuesto por el sistema.</t>
+  </si>
+  <si>
+    <t>El usuario visualisa en la pantalla de su respectivo celelurar para verificar que su canción esta en la cola de espera del sistema para reproducirla.</t>
+  </si>
+  <si>
+    <t>El sistema Notifica al usuario despues del proseso de colocar Canciones  o entrar en la ronda del sistema de reprodución de Canciones que pueda que ya haya por ejemplo alcansado el limite de canciones reitero le notifica su limite de canciones por ronda se a agotad, y pues si no a agotado el limite de cansiones pues no pasa nada no le notifica nada.</t>
+  </si>
+  <si>
+    <t>Usuario Hase el prosedimiento para poner canciones por rondasen el sistema</t>
+  </si>
+  <si>
+    <t>Usuario Finaliso el prosedimiento para poner canciones por rondas en el sistema</t>
+  </si>
+  <si>
+    <t>El administrador Recibe la verificación del Sistema prosede ha Registrar  la canción de una plataforma en formato mp3 para que los usuario no les de por subir o colocar en el buscador una pelicula por ejemplo para que se evite todo eso ya saven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario Prosede Escribe nombre de la cancion para buscarla en el barra de busqueda de la pagina  usando los dedos las manos para teclear en la pantalla de su respectivo  celurar por supuesto y le da al boton de enviar al sistema para el proseda. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puede que el usuario le de por poner un </t>
   </si>
 </sst>
 </file>
@@ -369,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +474,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,42 +522,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,6 +582,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,9 +618,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -561,30 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -593,9 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,19 +968,19 @@
   <dimension ref="C4:M32"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:M8"/>
+      <selection activeCell="E5" sqref="E5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
-        <v>12</v>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -935,12 +989,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -948,15 +1002,15 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -1049,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1161,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1198,12 +1252,12 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1215,8 +1269,8 @@
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -1228,32 +1282,32 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1264,9 +1318,9 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1277,9 +1331,9 @@
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1290,9 +1344,9 @@
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="3:13" ht="15" customHeight="1">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1303,9 +1357,9 @@
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="3:13" ht="10.5" customHeight="1">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1316,9 +1370,9 @@
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="3:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1330,7 +1384,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F26:M26"/>
     <mergeCell ref="C26:D32"/>
     <mergeCell ref="E27:E32"/>
     <mergeCell ref="F27:M32"/>
@@ -1350,6 +1403,7 @@
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F26:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1368,11 +1422,11 @@
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -1380,12 +1434,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -1393,10 +1447,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -1448,27 +1502,27 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -1476,14 +1530,14 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -1502,14 +1556,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -1517,14 +1571,14 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -1543,14 +1597,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -1558,14 +1612,14 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -1584,14 +1638,14 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="3:13" ht="24" customHeight="1" thickBot="1">
       <c r="C21" s="46"/>
@@ -1599,14 +1653,14 @@
       <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13" ht="27.75" customHeight="1" thickBot="1">
       <c r="C22" s="46"/>
@@ -1614,14 +1668,14 @@
       <c r="E22" s="3">
         <v>6</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="3:13" ht="24.75" customHeight="1" thickBot="1">
       <c r="C23" s="48"/>
@@ -1629,66 +1683,66 @@
       <c r="E23" s="2">
         <v>7</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" ht="15" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
@@ -1701,9 +1755,9 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1714,9 +1768,9 @@
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1727,9 +1781,9 @@
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1740,9 +1794,9 @@
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1753,9 +1807,9 @@
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="3:13" ht="7.5" customHeight="1" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1807,11 +1861,11 @@
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -1819,12 +1873,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -1832,10 +1886,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -1887,27 +1941,27 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -1915,14 +1969,14 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -1941,14 +1995,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -1956,14 +2010,14 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -1982,14 +2036,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -1997,14 +2051,14 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -2023,14 +2077,14 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="3:13" ht="24.75" customHeight="1" thickBot="1">
       <c r="C21" s="46"/>
@@ -2038,14 +2092,14 @@
       <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13" ht="19.5" customHeight="1">
       <c r="C22" s="46"/>
@@ -2053,79 +2107,79 @@
       <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" ht="15" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
@@ -2138,9 +2192,9 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2151,9 +2205,9 @@
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2164,9 +2218,9 @@
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2177,9 +2231,9 @@
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2190,9 +2244,9 @@
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2244,12 +2298,12 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:13">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -2258,12 +2312,12 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -2271,15 +2325,15 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -2328,29 +2382,29 @@
       <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
+      <c r="F9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="3:13" ht="27" customHeight="1" thickBot="1">
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="3:13" ht="15" customHeight="1">
       <c r="C11" s="46"/>
@@ -2359,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2374,12 +2428,12 @@
       <c r="D12" s="47"/>
       <c r="E12" s="15"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="3:13" ht="15.75" customHeight="1">
@@ -2387,12 +2441,12 @@
       <c r="D13" s="47"/>
       <c r="E13" s="15"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="3:13" ht="9" customHeight="1">
@@ -2400,12 +2454,12 @@
       <c r="D14" s="47"/>
       <c r="E14" s="15"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="3:13" ht="10.5" customHeight="1">
@@ -2413,12 +2467,12 @@
       <c r="D15" s="47"/>
       <c r="E15" s="15"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
@@ -2441,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2456,12 +2510,12 @@
       <c r="D18" s="47"/>
       <c r="E18" s="15"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="3:13" ht="15.75" customHeight="1">
@@ -2469,12 +2523,12 @@
       <c r="D19" s="47"/>
       <c r="E19" s="15"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="3:13" ht="28.5" customHeight="1" thickBot="1">
@@ -2497,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -2521,12 +2575,12 @@
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="3:13" ht="15" customHeight="1">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2538,8 +2592,8 @@
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -2551,32 +2605,32 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="3:13" ht="15" customHeight="1">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="26">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -2587,61 +2641,61 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="3:13" ht="15" customHeight="1">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="3:13" ht="10.5" customHeight="1" thickBot="1">
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="32"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2653,12 +2707,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F11:M16"/>
-    <mergeCell ref="F17:M20"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F21:M22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:M5"/>
     <mergeCell ref="C6:D7"/>
@@ -2667,6 +2715,12 @@
     <mergeCell ref="F8:M8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:M10"/>
+    <mergeCell ref="F11:M16"/>
+    <mergeCell ref="F17:M20"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F21:M22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="C23:D24"/>
     <mergeCell ref="E23:M24"/>
     <mergeCell ref="F25:M25"/>
@@ -2682,20 +2736,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE587CD-F565-4B31-ABB1-9DC005FD5411}">
   <dimension ref="C4:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:M11"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
-        <v>26</v>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -2704,12 +2758,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -2717,15 +2771,15 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13" ht="15" customHeight="1">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -2774,27 +2828,29 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -2802,14 +2858,16 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -2824,18 +2882,18 @@
       <c r="L13" s="74"/>
       <c r="M13" s="75"/>
     </row>
-    <row r="14" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="3:13" ht="33.75" customHeight="1" thickBot="1">
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -2843,40 +2901,42 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
-    </row>
-    <row r="17" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="3:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -2884,14 +2944,16 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -2910,29 +2972,31 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
-    </row>
-    <row r="21" spans="3:13" ht="27.75" customHeight="1" thickBot="1">
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="3:13" ht="58.5" customHeight="1" thickBot="1">
       <c r="C21" s="46"/>
       <c r="D21" s="47"/>
       <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13" ht="27.75" customHeight="1" thickBot="1">
       <c r="C22" s="46"/>
@@ -2940,36 +3004,42 @@
       <c r="E22" s="3">
         <v>6</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
-    </row>
-    <row r="23" spans="3:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="F22" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="3:13" ht="30" customHeight="1" thickBot="1">
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
       <c r="E23" s="2">
         <v>7</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="F23" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="3:13" ht="15" customHeight="1">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2980,8 +3050,8 @@
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -2993,105 +3063,109 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" ht="15" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="53">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="62">
         <v>1</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="F27" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="3:13" ht="15" customHeight="1">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="53">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="62">
         <v>2</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="F30" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3129,19 +3203,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB122C8-EEE3-48D7-B56E-BBFF053124A9}">
   <dimension ref="C4:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -3149,12 +3225,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -3162,14 +3238,16 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13" ht="15" customHeight="1">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="38"/>
+      <c r="E7" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -3217,27 +3295,29 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-    </row>
-    <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+    </row>
+    <row r="11" spans="3:13" ht="30" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -3245,14 +3325,16 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -3271,14 +3353,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -3286,14 +3368,16 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -3312,14 +3396,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -3327,14 +3411,16 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -3353,14 +3439,14 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="3:13" ht="13.5" customHeight="1">
       <c r="C21" s="46"/>
@@ -3368,169 +3454,175 @@
       <c r="E21" s="14">
         <v>5</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
+      <c r="F21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="3:13" ht="14.25" customHeight="1">
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="3:13" ht="11.25" customHeight="1" thickBot="1">
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+    </row>
+    <row r="23" spans="3:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="53">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="62">
         <v>1</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="F27" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="53">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="62">
         <v>2</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3575,11 +3667,11 @@
   <sheetData>
     <row r="5" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="6" spans="3:13">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -3587,12 +3679,12 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -3600,10 +3692,10 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="3:13" ht="15" customHeight="1">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="35"/>
@@ -3655,27 +3747,27 @@
       <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C12" s="46"/>
       <c r="D12" s="47"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -3683,14 +3775,14 @@
       <c r="E13" s="14">
         <v>2</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="3:13" ht="15" customHeight="1">
       <c r="C14" s="46"/>
@@ -3709,14 +3801,14 @@
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -3724,14 +3816,14 @@
       <c r="E16" s="14">
         <v>3</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="3:13" ht="15" customHeight="1">
       <c r="C17" s="46"/>
@@ -3750,14 +3842,14 @@
       <c r="C18" s="46"/>
       <c r="D18" s="47"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -3765,14 +3857,14 @@
       <c r="E19" s="14">
         <v>4</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1">
       <c r="C20" s="46"/>
@@ -3791,14 +3883,14 @@
       <c r="C21" s="46"/>
       <c r="D21" s="47"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="3:13" ht="27" customHeight="1" thickBot="1">
       <c r="C22" s="46"/>
@@ -3806,14 +3898,14 @@
       <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="3:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="C23" s="46"/>
@@ -3821,14 +3913,14 @@
       <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="3:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="C24" s="48"/>
@@ -3836,143 +3928,143 @@
       <c r="E24" s="3">
         <v>7</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="3:13" ht="15" customHeight="1">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="3:13" ht="15" customHeight="1">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="53">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="62">
         <v>1</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="64"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="72"/>
     </row>
     <row r="31" spans="3:13" ht="15" customHeight="1">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="53">
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="62">
         <v>2</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="3:13">
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="61"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="69"/>
     </row>
     <row r="33" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="64"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4018,11 +4110,11 @@
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="33"/>
@@ -4032,12 +4124,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -4045,10 +4137,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13" ht="15" customHeight="1">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -4100,27 +4192,27 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -4128,14 +4220,14 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -4154,14 +4246,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -4169,14 +4261,14 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -4195,14 +4287,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -4210,14 +4302,14 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -4236,14 +4328,14 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="3:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="C21" s="46"/>
@@ -4251,14 +4343,14 @@
       <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13" ht="19.5" customHeight="1">
       <c r="C22" s="46"/>
@@ -4266,156 +4358,156 @@
       <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="3:13" ht="15.75" thickBot="1">
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="3:13" ht="15" customHeight="1">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" ht="15" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="53">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="62">
         <v>1</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="3:13" ht="15" customHeight="1">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="53">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="62">
         <v>2</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4461,11 +4553,11 @@
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="33"/>
@@ -4475,12 +4567,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -4488,10 +4580,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13" ht="15" customHeight="1">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -4543,27 +4635,27 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -4571,14 +4663,14 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -4597,14 +4689,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -4612,14 +4704,14 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -4638,14 +4730,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -4653,14 +4745,14 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -4679,14 +4771,14 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="3:13" ht="19.5" customHeight="1">
       <c r="C21" s="46"/>
@@ -4730,133 +4822,133 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="3:13" ht="15" customHeight="1">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" ht="15" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="53">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="62">
         <v>1</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="3:13" ht="15" customHeight="1">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="53">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="62">
         <v>2</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4901,11 +4993,11 @@
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="33"/>
@@ -4915,12 +5007,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -4928,10 +5020,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -4983,27 +5075,27 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -5011,14 +5103,14 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -5037,14 +5129,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -5052,14 +5144,14 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -5078,14 +5170,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -5121,14 +5213,14 @@
       <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="3:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="C21" s="46"/>
@@ -5136,14 +5228,14 @@
       <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="C22" s="46"/>
@@ -5151,14 +5243,14 @@
       <c r="E22" s="3">
         <v>7</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="3:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="C23" s="48"/>
@@ -5166,143 +5258,143 @@
       <c r="E23" s="2">
         <v>8</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="53">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="62">
         <v>1</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="61"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="53">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="62">
         <v>2</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5349,11 +5441,11 @@
   <sheetData>
     <row r="4" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -5361,12 +5453,12 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -5374,10 +5466,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -5429,27 +5521,27 @@
       <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="3:13" ht="15" customHeight="1">
       <c r="C12" s="46"/>
@@ -5457,14 +5549,14 @@
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="3:13" ht="15" customHeight="1">
       <c r="C13" s="46"/>
@@ -5483,14 +5575,14 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="3:13" ht="15" customHeight="1">
       <c r="C15" s="46"/>
@@ -5498,14 +5590,14 @@
       <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="3:13" ht="15" customHeight="1">
       <c r="C16" s="46"/>
@@ -5524,14 +5616,14 @@
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1">
       <c r="C18" s="46"/>
@@ -5539,14 +5631,14 @@
       <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1">
       <c r="C19" s="46"/>
@@ -5565,14 +5657,14 @@
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="3:13" ht="27.75" customHeight="1" thickBot="1">
       <c r="C21" s="46"/>
@@ -5580,14 +5672,14 @@
       <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13" ht="19.5" customHeight="1">
       <c r="C22" s="46"/>
@@ -5618,56 +5710,56 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="3:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" ht="15" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
@@ -5680,9 +5772,9 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -5693,9 +5785,9 @@
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -5706,9 +5798,9 @@
       <c r="M29" s="10"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -5719,9 +5811,9 @@
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -5732,9 +5824,9 @@
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
